--- a/target/classes/excel/cpc_template_backup.xlsx
+++ b/target/classes/excel/cpc_template_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E70C12-1343-4F15-A959-611207333FAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CFFF7C-8226-428F-B2E8-F74116729261}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="3765" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
+    <workbookView xWindow="2025" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{3F82107C-D104-49BF-BF6B-321B88D20EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Colonna per Colonna Demo</t>
   </si>
@@ -867,7 +867,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/classes/excel/cpc_template_backup.xlsx
+++ b/target/classes/excel/cpc_template_backup.xlsx
@@ -33,7 +33,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8DA0443C-4637-4EB2-8167-F0A63914D949}">
